--- a/public/format-import-student.xlsx
+++ b/public/format-import-student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arif\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB28D77B-B329-43AB-AADF-7BEFAFB3B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A02B8-4533-4715-8D2C-1413AF4765A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7632053-E0F7-48C9-8DE2-F1C0414C00AB}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,10 +103,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -107,8 +116,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB0470E-D10A-4B7E-B919-9F2F06D94C4C}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +447,7 @@
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="7" width="25" style="3" customWidth="1"/>
     <col min="8" max="8" width="80.7109375" customWidth="1"/>
@@ -455,7 +470,7 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -475,6 +490,9 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
